--- a/output6.xlsx
+++ b/output6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,15 +506,11 @@
           <t>01/02/2021</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">remain consistent with the needs, characteristics and objectives of their identified target market, taking into account the investment pathway options in COBS 19.10.17R(1); and
-</t>
+          <t>1
+2A manufacturer must review its pathway investments at least annually to ensure that the pathway investments:</t>
         </is>
       </c>
     </row>
@@ -539,13 +535,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">are being distributed to their target market.  
-</t>
+          <t>remain consistent with the needs, characteristics and objectives of their identified target market, taking into account the investment pathway options in COBS 19.10.17R(1); and</t>
         </is>
       </c>
     </row>
@@ -555,12 +550,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PROD 6.2.2</t>
+          <t>PROD 6.2.1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -568,10 +563,14 @@
           <t>01/02/2021</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>A firm to which the record-keeping rules in SYSC 3 (Systems and controls) or SYSC 9 (Record-keeping) apply should maintain, in relation to its manufacture of pathway investments, a record of the process undertaken to approve each pathway investment, and of the review conducted for each pathway investment to comply with PROD 6.2.1R.</t>
+          <t>are being distributed to their target market.</t>
         </is>
       </c>
     </row>
@@ -581,12 +580,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PROD 6.3.1</t>
+          <t>PROD 6.2.2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -597,8 +596,7 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1
-2A firm must not distribute a pathway investment unless it is compatible with the needs, characteristics and objectives of those retail clients that fall within the pathway investment’s target market, taking into account the investment pathway options in COBS 19.10.17R(1).</t>
+          <t>A firm to which the record-keeping rules in SYSC 3 (Systems and controls) or SYSC 9 (Record-keeping) apply should maintain, in relation to its manufacture of pathway investments, a record of the process undertaken to approve each pathway investment, and of the review conducted for each pathway investment to comply with PROD 6.2.1R.</t>
         </is>
       </c>
     </row>
@@ -608,7 +606,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PROD 6.3.2</t>
+          <t>PROD 6.3.1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -621,15 +619,11 @@
           <t>01/02/2021</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">the price and complexity of the pathway investment; and
-</t>
+          <t>1
+2A firm must not distribute a pathway investment unless it is compatible with the needs, characteristics and objectives of those retail clients that fall within the pathway investment’s target market, taking into account the investment pathway options in COBS 19.10.17R(1).</t>
         </is>
       </c>
     </row>
@@ -652,15 +646,10 @@
           <t>01/02/2021</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">where the firm is referring retail clients to be transferred to the personal pension scheme or stakeholder pension scheme operated by another firm, they must also take into account:
-</t>
+          <t>When carrying out the compatibility assessment referred to in PROD 6.3.1R, firms must take into account:</t>
         </is>
       </c>
     </row>
@@ -685,12 +674,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">(a) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>the charges and other product features of that other firm’s drawdown product;</t>
+          <t>the price and complexity of the pathway investment; and</t>
         </is>
       </c>
     </row>
@@ -715,14 +704,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">(b) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">  
-the financial strength of that other firm; and
-</t>
+          <t>where the firm is referring retail clients to be transferred to the personal pension scheme or stakeholder pension scheme operated by another firm, they must also take into account:</t>
         </is>
       </c>
     </row>
@@ -747,13 +734,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">(c) </t>
+          <t>(a)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">the reliability and efficiency of that other firm in relation to its dealings with retail clients.    
-</t>
+          <t>the charges and other product features of that other firm’s drawdown product;</t>
         </is>
       </c>
     </row>
@@ -763,7 +749,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PROD 6.3.3</t>
+          <t>PROD 6.3.2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -778,13 +764,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(b)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">the distribution arrangements are still valid and up to date; and
-</t>
+          <t>the financial strength of that other firm; and</t>
         </is>
       </c>
     </row>
@@ -794,7 +779,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PROD 6.3.3</t>
+          <t>PROD 6.3.2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -809,13 +794,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(c)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve">the pathway investments remain compatible with, and are being distributed to, their target market in accordance with PROD 6.3.1R.  
-</t>
+          <t>the reliability and efficiency of that other firm in relation to its dealings with retail clients.</t>
         </is>
       </c>
     </row>
@@ -825,12 +809,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PROD 6.3.4</t>
+          <t>PROD 6.3.3</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -841,7 +825,7 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>A firm to which the record-keeping rules in SYSC 3 or SYSC 9 apply should maintain, in relation to its distribution of pathway investments, a record of the process undertaken to select each pathway investment, and of the review conducted for each pathway investment to comply with PROD 6.3.3R.</t>
+          <t>A firm must review the distribution arrangements for the pathway investments it distributes at least on a two-yearly basis to ensure:</t>
         </is>
       </c>
     </row>
@@ -851,7 +835,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PROD 6.3.5</t>
+          <t>PROD 6.3.3</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -864,10 +848,14 @@
           <t>01/02/2021</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Where a firm (A) refers retail clients to another firm (B), where B can offer a pathway investment to the retail client if the retail client transfers to the personal pension scheme or stakeholder pension scheme operated by B, both A and B must comply with PROD 6.3.6R.</t>
+          <t>the distribution arrangements are still valid and up to date; and</t>
         </is>
       </c>
     </row>
@@ -877,7 +865,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PROD 6.3.6</t>
+          <t>PROD 6.3.3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -892,13 +880,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve">A becomes aware of a pattern of retail clients choosing to stay with A and not transferring to B; and
-</t>
+          <t>the pathway investments remain compatible with, and are being distributed to, their target market in accordance with PROD 6.3.1R.</t>
         </is>
       </c>
     </row>
@@ -908,12 +895,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PROD 6.3.6</t>
+          <t>PROD 6.3.4</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -921,15 +908,10 @@
           <t>01/02/2021</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">A considers that this choice is unlikely to be in the interests of those retail clients, having regard to their objectives and characteristics; then
-</t>
+          <t>A firm to which the record-keeping rules in SYSC 3 or SYSC 9 apply should maintain, in relation to its distribution of pathway investments, a record of the process undertaken to select each pathway investment, and of the review conducted for each pathway investment to comply with PROD 6.3.3R.</t>
         </is>
       </c>
     </row>
@@ -939,7 +921,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PROD 6.3.6</t>
+          <t>PROD 6.3.5</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -952,15 +934,10 @@
           <t>01/02/2021</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(3) </t>
-        </is>
-      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve">A must promptly inform B of its concerns in (1) and (2); and
-</t>
+          <t>Where a firm (A) refers retail clients to another firm (B), where B can offer a pathway investment to the retail client if the retail client transfers to the personal pension scheme or stakeholder pension scheme operated by B, both A and B must comply with PROD 6.3.6R.</t>
         </is>
       </c>
     </row>
@@ -983,15 +960,10 @@
           <t>01/02/2021</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(4) </t>
-        </is>
-      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve">A and B must each take reasonable steps to minimise the potential harm to retail clients.
-</t>
+          <t>Where:</t>
         </is>
       </c>
     </row>
@@ -1001,21 +973,141 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>PROD 6.3.6</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>01/02/2021</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>A becomes aware of a pattern of retail clients choosing to stay with A and not transferring to B; and</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>PROD 6.3.6</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>01/02/2021</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>A considers that this choice is unlikely to be in the interests of those retail clients, having regard to their objectives and characteristics; then</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>PROD 6.3.6</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>01/02/2021</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>(3)</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>A must promptly inform B of its concerns in (1) and (2); and</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>PROD 6.3.6</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>01/02/2021</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>(4)</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>A and B must each take reasonable steps to minimise the potential harm to retail clients.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>PROD 6.3.7</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>01/02/2021</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>01/02/2021</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
         <is>
           <t>Reasonable steps for the purposes of PROD 6.3.6R may include A and B making it easier for retail clients to transfer to the personal pension scheme or stakeholder pension scheme operated by B.</t>
         </is>
